--- a/content/indicators/libros-por-pais-assets/libros-por-pais.xlsx
+++ b/content/indicators/libros-por-pais-assets/libros-por-pais.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sites\lectupedia\content\indicators\libros-por-pais-assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4618EE25-5101-479A-A5AD-F07847FD31E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAC1A3F-2A3C-4CF9-AB77-DB68B3ADFC68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2625" windowWidth="20640" windowHeight="11760" tabRatio="816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Datos!$B$1:$L$257</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Datos!$A$1:$L$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Datos!$B$1:$M$259</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Datos!$A$1:$M$36</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Datos!$A:$A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="140">
   <si>
     <t>Argentina</t>
   </si>
@@ -73,18 +73,9 @@
     <t>Año</t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
     <t>Centro Regional para el Fomento el Libro en América Latina y  el Caribe</t>
   </si>
   <si>
-    <t>http://www.pch.gc.ca/eng/1290797114127/1290797724067</t>
-  </si>
-  <si>
-    <t>The International Publishing Services Market</t>
-  </si>
-  <si>
     <t>http://www.smitherspira.com/news/2014/august/insight-the-future-of-the-global-printing-market</t>
   </si>
   <si>
@@ -106,21 +97,12 @@
     <t>Notas</t>
   </si>
   <si>
-    <t>https://books.google.com.co/books?id=om1eaQbidH8C&amp;lpg=PA120&amp;dq=%22books%20per%20year%22%20%22south%20korea%22&amp;pg=PA120#v=onepage&amp;q=%22books%20per%20year%22%20%22south%20korea%22&amp;f=false</t>
-  </si>
-  <si>
     <t>Informe en PDF, página 14.</t>
   </si>
   <si>
     <t>Corea del Sur</t>
   </si>
   <si>
-    <t>http://data.library.utoronto.ca/datapub/codebooks/utm/srbb05/srbb05_report.pdf</t>
-  </si>
-  <si>
-    <t>Department of Canadian Heritage. Report on University of Toronto</t>
-  </si>
-  <si>
     <t>Ministère de la Culture et de la Communication - France. / Ipsos</t>
   </si>
   <si>
@@ -133,9 +115,6 @@
     <t>Insight: The Future of the Global Printing Market</t>
   </si>
   <si>
-    <t>Book: The International Publishing Services Market</t>
-  </si>
-  <si>
     <t>PDF: Comportamiento lector y hábitos de lectura</t>
   </si>
   <si>
@@ -148,13 +127,7 @@
     <t>http://www.libraries.fi/statistics#.V_LXOfnhCUk</t>
   </si>
   <si>
-    <t>Informe en PDF, sección 1.3, página 5. Nota: La última infografía basaba sus datos en otra fuente, que refería un promedio de 20 libros al año.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ubicación: </t>
-  </si>
-  <si>
-    <t>www.10libros.org/lectura-mundo</t>
   </si>
   <si>
     <t xml:space="preserve">Email: </t>
@@ -185,37 +158,13 @@
     <t>China</t>
   </si>
   <si>
-    <t>http://www.digitalbookworld.com/2012/cs-new-zealand-market-brief/</t>
-  </si>
-  <si>
-    <t>Digital Book World</t>
-  </si>
-  <si>
     <t>Pew Research Center - USA</t>
   </si>
   <si>
-    <t>U.S. Commercial Service New Zealand Market Brief</t>
-  </si>
-  <si>
-    <t>A Snapshot of Reading in America in 2013</t>
-  </si>
-  <si>
-    <t>http://www.pewinternet.org/2014/01/16/a-snapshot-of-reading-in-america-in-2013/</t>
-  </si>
-  <si>
-    <t>Information centre of Statistics Estonia</t>
-  </si>
-  <si>
-    <t>http://www.stat.ee/50479</t>
-  </si>
-  <si>
     <t>Residents of Estonia continuously take a big interest in book reading</t>
   </si>
   <si>
     <t>Fuente</t>
-  </si>
-  <si>
-    <t>Se distribuye con licencia Creative Commons, Atribución – Compartir igual: Se debe citar el Autor y la Ubicación original.</t>
   </si>
   <si>
     <t>C.V.</t>
@@ -298,9 +247,6 @@
   </si>
   <si>
     <t>https://www.dane.gov.co/files/investigaciones/eccultulral/anexos_ecc_12_mas_2020-lectura.xls</t>
-  </si>
-  <si>
-    <t>Otros enlaces a la fuente</t>
   </si>
   <si>
     <t>Anexos 12 años y más, Lectura, Cuadro 19.</t>
@@ -447,6 +393,108 @@
   </si>
   <si>
     <t>Encuesta del Comportamiento Lector, Acceso al Libro y la Lectura en Venezuela, año 2012</t>
+  </si>
+  <si>
+    <t>https://lectupedia.netlify.app/es/indicators/cantidad-de-libros-leidos-por-pais/</t>
+  </si>
+  <si>
+    <t>Se distribuye con licencia Creative Commons, Atribución-NoComercial 4.0 Internacional (CC BY-NC 4.0): Se debe citar el Autor y la Ubicación original.</t>
+  </si>
+  <si>
+    <t>andreseduardop@gmail.com</t>
+  </si>
+  <si>
+    <t>http://publications.gc.ca/collections/Collection/CH44-61-2005E.pdf</t>
+  </si>
+  <si>
+    <t>China Daily</t>
+  </si>
+  <si>
+    <t>http://www.chinadaily.com.cn/china/2013-04/19/content_16423992.htm</t>
+  </si>
+  <si>
+    <t>Reading rate falling in China</t>
+  </si>
+  <si>
+    <t>https://www.theatlantic.com/china/archive/2013/08/why-arent-chinese-people-reading-books-anymore/278729/</t>
+  </si>
+  <si>
+    <t>El artículo se basa en un reporte pbulicado por  Chinese Academy of Press and Publication, en abril 18 de 2020.</t>
+  </si>
+  <si>
+    <t>4. Tiempo de lectura</t>
+  </si>
+  <si>
+    <t>Department of Canadian Heritage / Booknet Canada</t>
+  </si>
+  <si>
+    <t>2005/2020</t>
+  </si>
+  <si>
+    <t>https://www.booknetcanada.ca/canadian-leisure-and-reading-2020</t>
+  </si>
+  <si>
+    <t>[1. Libros por habitante]: calculado con base en [2]. [2. Libros por lector]: se otbiene de la fuente 1 en PDF, sección 1.3, página 5 (2005). [3. Población lectora]: se obtiene de la segunda fuente (2020).</t>
+  </si>
+  <si>
+    <t>Enlace Fuente 1</t>
+  </si>
+  <si>
+    <t>Enlace Fuente 2</t>
+  </si>
+  <si>
+    <t>https://www.stat.ee/en/uudised/news-release-2010-167</t>
+  </si>
+  <si>
+    <t>Statistics Estonia</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Macquarie University</t>
+  </si>
+  <si>
+    <t>http://www.businessandeconomics.mq.edu.au/our_departments/Economics/econ_research/reach_network/book_project/readers</t>
+  </si>
+  <si>
+    <t>Reading The Reader: A Survey Of Australian Reading Habits</t>
+  </si>
+  <si>
+    <t>https://www.australiacouncil.gov.au/research/reading-the-reader/</t>
+  </si>
+  <si>
+    <t>6,9 hps</t>
+  </si>
+  <si>
+    <t>Read NZ Te Pou Muramura</t>
+  </si>
+  <si>
+    <t>https://www.read-nz.org/advocacy/research/</t>
+  </si>
+  <si>
+    <t>2019 Research: Reading in a Digital Age</t>
+  </si>
+  <si>
+    <t>https://www.pewresearch.org/internet/2016/09/01/book-reading-2016/</t>
+  </si>
+  <si>
+    <t>Book Reading 2016</t>
+  </si>
+  <si>
+    <t>https://www.pewresearch.org/internet/wp-content/uploads/sites/9/2016/08/PI_2016.09.01_Book-Reading_FINAL.pdf</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>https://www.kantar.com/uki/inspiration/sport-leisure/are-people-still-reading-physical-books/</t>
+  </si>
+  <si>
+    <t>Are people still reading physical books?</t>
+  </si>
+  <si>
+    <t>Kantar data consulting company</t>
   </si>
 </sst>
 </file>
@@ -636,7 +684,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -728,9 +776,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -747,15 +792,25 @@
     </xf>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -774,8 +829,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -795,8 +851,8 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -808,132 +864,7 @@
     <cellStyle name="Normal 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Porcentaje" xfId="6" builtinId="5"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="0.0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -989,6 +920,152 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -1038,15 +1115,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>22411</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>24091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1374361</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>172591</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1090,26 +1167,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:N19" totalsRowShown="0" headerRowDxfId="14">
-  <autoFilter ref="A1:N19" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N19">
-    <sortCondition ref="B1:B19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:O21" totalsRowShown="0" headerRowDxfId="15">
+  <autoFilter ref="A1:O21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O21">
+    <sortCondition ref="B1:B21"/>
   </sortState>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No." dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="País" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="1. Libros _x000a_por habitante *_x000a_(cant. Promedio)" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{59C34C05-C916-4B0A-81E3-1318CDC25DD9}" name="1. Dispersión" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="2. Libros _x000a_por lector **_x000a_(cant. Promedio)" dataDxfId="0" dataCellStyle="Millares"/>
-    <tableColumn id="5" xr3:uid="{BEEF02A6-7F9A-4F11-B29F-7429E788A632}" name="2. Dispersión" dataDxfId="1" dataCellStyle="Millares"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="3. Población lectora_x000a_(%)" dataDxfId="3" dataCellStyle="Porcentaje"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Fuente" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Año" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Link" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Nombre del recurso o título de la página" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Consultado _x000a_el día" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Otros enlaces a la fuente" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Notas" dataDxfId="7"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No." dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="País" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="1. Libros _x000a_por habitante *_x000a_(cant. Promedio)" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{59C34C05-C916-4B0A-81E3-1318CDC25DD9}" name="1. Dispersión" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="2. Libros _x000a_por lector **_x000a_(cant. Promedio)" dataDxfId="10" dataCellStyle="Millares"/>
+    <tableColumn id="5" xr3:uid="{BEEF02A6-7F9A-4F11-B29F-7429E788A632}" name="2. Dispersión" dataDxfId="9" dataCellStyle="Millares"/>
+    <tableColumn id="14" xr3:uid="{D290170C-DC12-4266-85B7-9DBF0943B780}" name="3. Población lectora_x000a_(%)" dataDxfId="8" dataCellStyle="Millares"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="4. Tiempo de lectura" dataDxfId="7" dataCellStyle="Porcentaje"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Fuente" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Año" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Enlace Fuente 1" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Nombre del recurso o título de la página" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Consultado _x000a_el día" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Enlace Fuente 2" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Notas" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1439,13 +1517,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N193"/>
+  <dimension ref="A1:O195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -1453,62 +1531,65 @@
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
     <col min="3" max="4" width="20.7109375" style="1" customWidth="1"/>
-    <col min="5" max="7" width="20.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="75.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.85546875" customWidth="1"/>
-    <col min="11" max="11" width="53.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="76" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="41.42578125" customWidth="1"/>
-    <col min="16" max="252" width="9.140625" customWidth="1"/>
+    <col min="5" max="8" width="20.7109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="75.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.85546875" customWidth="1"/>
+    <col min="12" max="12" width="53.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="76" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.42578125" customWidth="1"/>
+    <col min="17" max="253" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="48.75" customHeight="1">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="48.75" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>12</v>
-      </c>
       <c r="K1" s="12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>91</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="16"/>
       <c r="B2" s="8" t="s">
         <v>0</v>
@@ -1517,903 +1598,1060 @@
         <v>1.6</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35">
+        <v>69</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34">
         <v>0.442</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I2" s="8">
+      <c r="H2" s="34"/>
+      <c r="I2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="8">
         <v>2017</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="L2" s="21">
+      <c r="K2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="21">
         <v>44186</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="N2" s="22"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="N2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" s="22"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="16"/>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="17">
-        <v>2.5</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="8">
-        <v>2019</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K3" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="L3" s="21">
-        <v>44186</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="B3" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34">
+        <v>0.92</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" s="8">
+        <v>2016</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="M3" s="21">
+        <v>44194</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="O3" s="22"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="16"/>
       <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="8">
-        <v>2005</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="21">
-        <v>42732</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H4" s="34"/>
+      <c r="I4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="8">
+        <v>2019</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="21">
+        <v>44186</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="16"/>
       <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="17">
-        <v>5.3</v>
+        <v>2</v>
+      </c>
+      <c r="C5" s="38">
+        <f>Tabla1[[#This Row],[2. Libros 
+por lector **
+(cant. Promedio)]]*Tabla1[[#This Row],[3. Población lectora
+(%)]]</f>
+        <v>13.43</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="35">
-        <v>0.44</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="8">
-        <v>2014</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="L5" s="21">
-        <v>44188</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="N5" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>69</v>
+      </c>
+      <c r="E5" s="39">
+        <v>17</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="34">
+        <v>0.79</v>
+      </c>
+      <c r="H5" s="34"/>
+      <c r="I5" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="21">
+        <v>44193</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="16"/>
       <c r="B6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="8">
+        <v>3</v>
+      </c>
+      <c r="C6" s="17">
+        <v>5.3</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="39"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34">
+        <v>0.44</v>
+      </c>
+      <c r="H6" s="34"/>
+      <c r="I6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="8">
         <v>2014</v>
       </c>
-      <c r="J6" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="21">
-        <v>42490</v>
-      </c>
-      <c r="N6" s="22"/>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="K6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="21">
+        <v>44188</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="16"/>
       <c r="B7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="17">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="H7" s="34"/>
+      <c r="I7" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" s="8">
+        <v>2013</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="M7" s="21">
+        <v>44193</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="16"/>
+      <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C8" s="17">
         <v>1.9</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="54">
+      <c r="D8" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="39">
         <v>3.8</v>
       </c>
-      <c r="F7" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="35">
+      <c r="F8" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="34">
         <v>0.502</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" s="8">
+      <c r="H8" s="34"/>
+      <c r="I8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="8">
         <v>2020</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="L7" s="21">
+      <c r="K8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" s="21">
         <v>44186</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="N7" s="22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="16"/>
-      <c r="B8" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="8">
-        <v>2001</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="21">
-        <v>42490</v>
-      </c>
-      <c r="N8" s="8"/>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="N8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="16"/>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="17">
+        <v>11</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="8">
+        <v>2011</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" s="21">
+        <v>44193</v>
+      </c>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="16"/>
+      <c r="B10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C10" s="38">
         <f>Tabla1[[#This Row],[2. Libros 
 por lector **
 (cant. Promedio)]]*Tabla1[[#This Row],[3. Población lectora
 (%)]]</f>
         <v>7.4665000000000008</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="54">
+      <c r="D10" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="39">
         <v>10.9</v>
       </c>
-      <c r="F9" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="35">
+      <c r="F10" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="34">
         <v>0.68500000000000005</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="I9" s="8">
+      <c r="H10" s="34"/>
+      <c r="I10" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="8">
         <v>2019</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="L9" s="21">
+      <c r="K10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" s="21">
         <v>42490</v>
       </c>
-      <c r="M9" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="N9" s="22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="16"/>
-      <c r="B10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="8">
-        <v>2013</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="21">
-        <v>42490</v>
-      </c>
-      <c r="N10" s="22"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="N10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="16"/>
       <c r="B11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="8">
-        <v>2010</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="21">
-        <v>42490</v>
-      </c>
-      <c r="N11" s="22"/>
-    </row>
-    <row r="12" spans="1:14">
+        <v>37</v>
+      </c>
+      <c r="C11" s="17">
+        <v>12</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34">
+        <v>0.73</v>
+      </c>
+      <c r="H11" s="34"/>
+      <c r="I11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="8">
+        <v>2016</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="M11" s="21">
+        <v>44194</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="O11" s="22"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="16"/>
       <c r="B12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="17">
         <v>6</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="8">
-        <v>2014</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="21">
-        <v>42660</v>
-      </c>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="D12" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="39"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34">
+        <v>0.75</v>
+      </c>
+      <c r="H12" s="34"/>
+      <c r="I12" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" s="8">
+        <v>2010</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="21">
+        <v>44194</v>
+      </c>
+      <c r="O12" s="22"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="16"/>
       <c r="B13" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="8">
-        <v>2015</v>
-      </c>
-      <c r="J13" s="19" t="s">
+      <c r="E13" s="39"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="8">
+        <v>2014</v>
+      </c>
+      <c r="K13" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="L13" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="L13" s="21">
-        <v>42732</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="M13" s="21">
+        <v>42660</v>
+      </c>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="16"/>
       <c r="B14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="40">
-        <v>1.43</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="54">
-        <v>3.4</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="35">
-        <v>0.41099999999999998</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I14" s="8">
-        <v>2020</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K14" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="L14" s="21">
-        <v>44186</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="N14" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>7</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="8">
+        <v>2015</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="21">
+        <v>42732</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="16"/>
       <c r="B15" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="42">
+        <v>1.43</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="39">
+        <v>3.4</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="34">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="H15" s="34"/>
+      <c r="I15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="8">
+        <v>2020</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="8">
-        <v>2012</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="L15" s="21">
-        <v>42490</v>
-      </c>
-      <c r="N15" s="22"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="M15" s="21">
+        <v>44186</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="16"/>
       <c r="B16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="17">
-        <v>3.3</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="54"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35">
-        <v>0.754</v>
-      </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="8">
-        <v>2015</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="L16" s="21">
-        <v>44188</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="N16" s="22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>36</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34">
+        <v>0.86</v>
+      </c>
+      <c r="H16" s="34"/>
+      <c r="I16" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" s="8">
+        <v>2019</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="M16" s="21">
+        <v>44194</v>
+      </c>
+      <c r="O16" s="22"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="16"/>
       <c r="B17" s="8" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C17" s="17">
-        <v>8.5</v>
+        <v>3.3</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I17" s="8">
-        <v>2012</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17" s="21">
+        <v>69</v>
+      </c>
+      <c r="E17" s="39"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34">
+        <v>0.754</v>
+      </c>
+      <c r="H17" s="34"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="8">
+        <v>2015</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="M17" s="21">
         <v>44188</v>
       </c>
-      <c r="M17" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="N17" s="22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="N17" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O17" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="16"/>
       <c r="B18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="17">
+        <v>8.5</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="39"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H18" s="34"/>
+      <c r="I18" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" s="8">
+        <v>2012</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="21">
+        <v>44188</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="O18" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="16"/>
+      <c r="B19" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="8">
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="8">
         <v>2014</v>
       </c>
-      <c r="J18" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="21">
+      <c r="K19" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="21">
         <v>42490</v>
       </c>
-      <c r="N18" s="8"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="16"/>
-      <c r="B19" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="17">
+      <c r="O19" s="8"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="16"/>
+      <c r="B20" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34">
+        <v>0.51</v>
+      </c>
+      <c r="H20" s="34"/>
+      <c r="I20" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="J20" s="8">
+        <v>2019</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="L20" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="M20" s="21">
+        <v>44194</v>
+      </c>
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="16"/>
+      <c r="B21" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="17">
         <v>2.0099999999999998</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="37">
+      <c r="D21" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="39"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="36">
         <v>0.495</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="I19" s="8">
+      <c r="H21" s="36"/>
+      <c r="I21" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="8">
         <v>2012</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K19" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="L19" s="21">
+      <c r="K21" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="M21" s="21">
         <v>44188</v>
       </c>
-      <c r="M19" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="N19" s="22"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="16"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="21"/>
-      <c r="N20" s="22"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="16"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="21"/>
-      <c r="N21" s="22"/>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="N21" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="O21" s="22"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="16"/>
-      <c r="B22" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>73</v>
-      </c>
+      <c r="C22" s="25"/>
       <c r="D22" s="25"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="21"/>
-      <c r="N22" s="22"/>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="E22" s="39"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="21"/>
+      <c r="O22" s="22"/>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="16"/>
-      <c r="B23" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>77</v>
-      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="25"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="21"/>
-      <c r="N23" s="22"/>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="21"/>
+      <c r="O23" s="22"/>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="16"/>
       <c r="B24" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="D24" s="25"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="21"/>
-      <c r="N24" s="22"/>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="H24" s="18"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="21"/>
+      <c r="O24" s="22"/>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="16"/>
       <c r="B25" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>91</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="21"/>
-      <c r="N25" s="22"/>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="H25" s="18"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="21"/>
+      <c r="O25" s="22"/>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="16"/>
       <c r="B26" s="22" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="21"/>
-      <c r="N26" s="22"/>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="H26" s="18"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="21"/>
+      <c r="O26" s="22"/>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="16"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="25"/>
+      <c r="B27" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>73</v>
+      </c>
       <c r="D27" s="25"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="21"/>
-      <c r="N27" s="22"/>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="H27" s="18"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="21"/>
+      <c r="O27" s="22"/>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="16"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="25"/>
+      <c r="B28" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>80</v>
+      </c>
       <c r="D28" s="25"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="21"/>
-      <c r="N28" s="22"/>
-    </row>
-    <row r="29" spans="1:14" s="8" customFormat="1">
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" spans="1:14" s="8" customFormat="1" ht="15.75">
-      <c r="B30" s="48"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="N30" s="29"/>
-    </row>
-    <row r="31" spans="1:14" s="8" customFormat="1" ht="33" customHeight="1">
-      <c r="B31" s="52"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="N31" s="29"/>
-    </row>
-    <row r="32" spans="1:14" s="8" customFormat="1" ht="30">
-      <c r="B32" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" s="32"/>
-      <c r="J32" s="27"/>
-    </row>
-    <row r="33" spans="2:10" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="B33" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="J33" s="27"/>
-    </row>
-    <row r="34" spans="2:10" s="8" customFormat="1">
-      <c r="B34" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="46" t="str">
+      <c r="H28" s="18"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="21"/>
+      <c r="O28" s="22"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="16"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="21"/>
+      <c r="O29" s="22"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="16"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="21"/>
+      <c r="O30" s="22"/>
+    </row>
+    <row r="31" spans="1:15" s="8" customFormat="1">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="1:15" s="8" customFormat="1" ht="15.75">
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="O32" s="29"/>
+    </row>
+    <row r="33" spans="2:15" s="8" customFormat="1" ht="33" customHeight="1">
+      <c r="B33" s="54"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="O33" s="29"/>
+    </row>
+    <row r="34" spans="2:15" s="8" customFormat="1" ht="30">
+      <c r="B34" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="K34" s="27"/>
+    </row>
+    <row r="35" spans="2:15" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="B35" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="K35" s="27"/>
+    </row>
+    <row r="36" spans="2:15" s="8" customFormat="1">
+      <c r="B36" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="48" t="str">
         <f ca="1">MID(CELL("filename"),FIND("[",CELL("filename"))+1,FIND("]",CELL("filename"))-FIND("[",CELL("filename"))-1)</f>
         <v>libros-por-pais.xlsx</v>
       </c>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="47"/>
-      <c r="J34" s="27"/>
-    </row>
-    <row r="35" spans="2:10" s="8" customFormat="1">
-      <c r="B35" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-    </row>
-    <row r="193" spans="12:12">
-      <c r="L193" s="3"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="49"/>
+      <c r="K36" s="27"/>
+    </row>
+    <row r="37" spans="2:15" s="8" customFormat="1">
+      <c r="B37" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+    </row>
+    <row r="39" spans="2:15">
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+    </row>
+    <row r="195" spans="13:13">
+      <c r="M195" s="3"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" sort="0" autoFilter="0"/>
   <mergeCells count="9">
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B33:H33"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="J8" r:id="rId2" location="v=onepage&amp;q=%22books%20per%20year%22%20%22south%20korea%22&amp;f=false" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="J4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="M4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="M13" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="J13" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="J12" r:id="rId7" location=".V_LXOfnhCUk" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="H33:H34" r:id="rId8" display="Se distribuye con licencia Creative Commons, Atribución – Compartir igual: Se debe citar el Autor y la Ubicación original." xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="M14" r:id="rId9" xr:uid="{956B6ED1-A89A-4505-BD28-C55DCBDAD1A7}"/>
-    <hyperlink ref="J14" r:id="rId10" xr:uid="{0EBA59A8-C251-4D76-B0D8-41024A63A7C5}"/>
-    <hyperlink ref="J3" r:id="rId11" xr:uid="{90BA5DF7-1A43-4167-9774-5FEDBD1008FB}"/>
-    <hyperlink ref="M3" r:id="rId12" xr:uid="{64A18EBE-3931-450C-BC1B-89044F9D6A80}"/>
-    <hyperlink ref="J7" r:id="rId13" xr:uid="{B7F4590A-3A87-4441-BDF3-CBB0D65350A6}"/>
-    <hyperlink ref="M7" r:id="rId14" xr:uid="{B2E9715A-04EB-4CBB-9F7D-60946B00B119}"/>
-    <hyperlink ref="J2" r:id="rId15" xr:uid="{C9643D37-499F-4367-A29B-FC984FE5FE07}"/>
-    <hyperlink ref="M2" r:id="rId16" xr:uid="{C073596B-4FF9-441C-BF7B-A9415774DEBE}"/>
-    <hyperlink ref="J5" r:id="rId17" xr:uid="{40029B9B-072E-4281-8E47-F9BB26FAC636}"/>
-    <hyperlink ref="M5" r:id="rId18" xr:uid="{ABC111D2-A58E-4833-867E-B1BD6116B33D}"/>
-    <hyperlink ref="J9" r:id="rId19" xr:uid="{CD3DFB01-CAC6-4B29-908D-93EA68B39CF0}"/>
-    <hyperlink ref="M9" r:id="rId20" xr:uid="{4CBBFEB7-9DC3-4C66-BB09-8C668C0563EC}"/>
-    <hyperlink ref="C9" location="Datos!N9" display="Datos!N9" xr:uid="{76ED3CFE-BD1A-4AC4-9EB5-D07A902BA7EA}"/>
-    <hyperlink ref="C14" location="Datos!N14" display="Datos!N14" xr:uid="{909930CF-E396-4033-8A08-BC6527DD47ED}"/>
-    <hyperlink ref="J16" r:id="rId21" xr:uid="{CCE19D65-1A7F-41BE-841A-EB97356F1352}"/>
-    <hyperlink ref="M16" r:id="rId22" xr:uid="{38B6E9F8-A018-45CA-9CB1-8422A0783C45}"/>
-    <hyperlink ref="J17" r:id="rId23" xr:uid="{10E01EBE-BFDB-4121-9452-43DCD64B3DB7}"/>
-    <hyperlink ref="M17" r:id="rId24" xr:uid="{FEC055AA-8789-4973-8F7E-F76B91007608}"/>
-    <hyperlink ref="M19" r:id="rId25" xr:uid="{9F45E114-5272-48EB-9042-BE5A0479751F}"/>
-    <hyperlink ref="J19" r:id="rId26" xr:uid="{14D5B021-2EFE-4D5D-9882-BB287EE33644}"/>
+    <hyperlink ref="K19" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="N14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K13" r:id="rId4" location=".V_LXOfnhCUk" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I35:I36" r:id="rId5" display="Se distribuye con licencia Creative Commons, Atribución-NoComercial 4.0 Internacional (CC BY-NC 4.0): Se debe citar el Autor y la Ubicación original." xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="N15" r:id="rId6" xr:uid="{956B6ED1-A89A-4505-BD28-C55DCBDAD1A7}"/>
+    <hyperlink ref="K15" r:id="rId7" xr:uid="{0EBA59A8-C251-4D76-B0D8-41024A63A7C5}"/>
+    <hyperlink ref="K4" r:id="rId8" xr:uid="{90BA5DF7-1A43-4167-9774-5FEDBD1008FB}"/>
+    <hyperlink ref="N4" r:id="rId9" xr:uid="{64A18EBE-3931-450C-BC1B-89044F9D6A80}"/>
+    <hyperlink ref="K8" r:id="rId10" xr:uid="{B7F4590A-3A87-4441-BDF3-CBB0D65350A6}"/>
+    <hyperlink ref="N8" r:id="rId11" xr:uid="{B2E9715A-04EB-4CBB-9F7D-60946B00B119}"/>
+    <hyperlink ref="K2" r:id="rId12" xr:uid="{C9643D37-499F-4367-A29B-FC984FE5FE07}"/>
+    <hyperlink ref="N2" r:id="rId13" xr:uid="{C073596B-4FF9-441C-BF7B-A9415774DEBE}"/>
+    <hyperlink ref="K6" r:id="rId14" xr:uid="{40029B9B-072E-4281-8E47-F9BB26FAC636}"/>
+    <hyperlink ref="N6" r:id="rId15" xr:uid="{ABC111D2-A58E-4833-867E-B1BD6116B33D}"/>
+    <hyperlink ref="K10" r:id="rId16" xr:uid="{CD3DFB01-CAC6-4B29-908D-93EA68B39CF0}"/>
+    <hyperlink ref="N10" r:id="rId17" xr:uid="{4CBBFEB7-9DC3-4C66-BB09-8C668C0563EC}"/>
+    <hyperlink ref="C10" location="Datos!O9" display="Datos!O9" xr:uid="{76ED3CFE-BD1A-4AC4-9EB5-D07A902BA7EA}"/>
+    <hyperlink ref="C15" location="Datos!O14" display="Datos!O14" xr:uid="{909930CF-E396-4033-8A08-BC6527DD47ED}"/>
+    <hyperlink ref="K17" r:id="rId18" xr:uid="{CCE19D65-1A7F-41BE-841A-EB97356F1352}"/>
+    <hyperlink ref="N17" r:id="rId19" xr:uid="{38B6E9F8-A018-45CA-9CB1-8422A0783C45}"/>
+    <hyperlink ref="K18" r:id="rId20" xr:uid="{10E01EBE-BFDB-4121-9452-43DCD64B3DB7}"/>
+    <hyperlink ref="N18" r:id="rId21" xr:uid="{FEC055AA-8789-4973-8F7E-F76B91007608}"/>
+    <hyperlink ref="N21" r:id="rId22" xr:uid="{9F45E114-5272-48EB-9042-BE5A0479751F}"/>
+    <hyperlink ref="K21" r:id="rId23" xr:uid="{14D5B021-2EFE-4D5D-9882-BB287EE33644}"/>
+    <hyperlink ref="C35" r:id="rId24" xr:uid="{7C0A521A-9D85-40BB-AE42-9C2EAB544825}"/>
+    <hyperlink ref="I34" r:id="rId25" xr:uid="{CCBC72B7-B12F-4CA3-868C-B42F9F2A5C3A}"/>
+    <hyperlink ref="K5" r:id="rId26" xr:uid="{952D6409-1D1A-4A5C-96E7-46255B7606FD}"/>
+    <hyperlink ref="K7" r:id="rId27" xr:uid="{F6488CA1-35BD-40B3-8CDD-66F929591F1F}"/>
+    <hyperlink ref="N7" r:id="rId28" xr:uid="{D4DD38CD-BA52-4BFF-9985-79B65F3D7996}"/>
+    <hyperlink ref="N5" r:id="rId29" xr:uid="{96642306-9318-401C-B681-6068A4F40F2C}"/>
+    <hyperlink ref="K9" r:id="rId30" xr:uid="{94A3C50A-FF65-400F-9D6B-7298A21AA382}"/>
+    <hyperlink ref="C5" location="Datos!O4" display="Datos!O4" xr:uid="{F208FF78-29C8-4F72-8452-B0627A3E441A}"/>
+    <hyperlink ref="K12" r:id="rId31" xr:uid="{989B6FCB-A4A9-4397-BF65-F68D7784C2E9}"/>
+    <hyperlink ref="K3" r:id="rId32" xr:uid="{A790480A-B42F-4F84-B6B3-46B05615EB5C}"/>
+    <hyperlink ref="N3" r:id="rId33" xr:uid="{72662D7C-8790-415E-8E47-392F3BB3F838}"/>
+    <hyperlink ref="K16" r:id="rId34" xr:uid="{FE2A09B8-CF85-4872-8046-18DDFEB6C3B8}"/>
+    <hyperlink ref="K11" r:id="rId35" xr:uid="{1AEC0258-3D24-43B4-BBC9-500B572D2507}"/>
+    <hyperlink ref="N11" r:id="rId36" xr:uid="{CFFD80CD-28FD-404B-AC0E-485D911E0709}"/>
+    <hyperlink ref="K20" r:id="rId37" xr:uid="{C50182A4-7533-4E52-8E43-A64E2317FC45}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="1.49" bottom="1.44" header="0.78" footer="0.49"/>
-  <pageSetup scale="52" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId27"/>
+  <pageSetup scale="52" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId38"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Calibri,Negrita"&amp;16&amp;K01+000Informe sobre la correlación entre 
 Factores de Desarrollo y Promedio de Libros Leídos por país
@@ -2421,11 +2659,11 @@
     <oddFooter>&amp;LAutor: Andrés Peña, 2016. Impreso: &amp;D&amp;RPágina &amp;P de &amp;N.</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="C9" unlockedFormula="1"/>
+    <ignoredError sqref="C10" unlockedFormula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId28"/>
+  <drawing r:id="rId39"/>
   <tableParts count="1">
-    <tablePart r:id="rId29"/>
+    <tablePart r:id="rId40"/>
   </tableParts>
 </worksheet>
 </file>